--- a/accuracy public results.xlsx
+++ b/accuracy public results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moharek\PycharmProjects\DIPLOMKA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{456B6E74-B6A7-4B87-9388-ECCA010E3201}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCE96A7D-D549-4BE9-9D09-A6251979AFE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7140" yWindow="7140" windowWidth="2370" windowHeight="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="150">
   <si>
     <t>DATASETS/MODELS</t>
   </si>
@@ -105,19 +105,19 @@
     <t>NRF_extraLayer_nesterov</t>
   </si>
   <si>
-    <t>0.8756888964944017+-0.010158789258938936</t>
-  </si>
-  <si>
-    <t>0.9013455238840268+-0.012676565155229523</t>
-  </si>
-  <si>
-    <t>0.8907341221336723+-0.013467348817716055</t>
-  </si>
-  <si>
-    <t>0.8911726886031389+-0.009299543055801886</t>
-  </si>
-  <si>
-    <t>0.8920569109666063+-0.0138061177010195</t>
+    <t>0.8838742482765365+-0.008830572516663868</t>
+  </si>
+  <si>
+    <t>0.9013460128098567+-0.011694087587368252</t>
+  </si>
+  <si>
+    <t>0.8909519385909158+-0.007469054631914015</t>
+  </si>
+  <si>
+    <t>0.8907306996528627+-0.006683111916367732</t>
+  </si>
+  <si>
+    <t>0.892283039162959+-0.0077172728990612316</t>
   </si>
   <si>
     <t>0.9020155967339755+-0.010932461607822906</t>
@@ -132,16 +132,16 @@
     <t>0.9026790690852198+-0.008270663128892717</t>
   </si>
   <si>
-    <t>0.8947152007040532+-0.010743157363905674</t>
+    <t>0.8931662836747666+-0.005195226156756313</t>
   </si>
   <si>
     <t>0.8949352173275315+-0.015717898333207928</t>
   </si>
   <si>
-    <t>0.9035613357453675+-0.005658161078474086</t>
-  </si>
-  <si>
-    <t>0.8971432063755929+-0.011738835362243462</t>
+    <t>0.9000229795140077+-0.003246864462722149</t>
+  </si>
+  <si>
+    <t>0.8951576785801594+-0.00840975699140414</t>
   </si>
   <si>
     <t>0.9028983523199531+-0.01092510146264415</t>
@@ -156,19 +156,19 @@
     <t>0.9009062240258153+-0.006630418827810297</t>
   </si>
   <si>
-    <t>0.998840579710145+-0.0015876016159569737</t>
-  </si>
-  <si>
-    <t>0.9253564547206166+-0.010431195067612836</t>
-  </si>
-  <si>
-    <t>0.8802178101700595+-0.017707801085973456</t>
-  </si>
-  <si>
-    <t>0.8998743402865041+-0.009645086779579433</t>
-  </si>
-  <si>
-    <t>0.8992812264388037+-0.024460398647819417</t>
+    <t>0.9994202898550725+-0.0012962712913042018</t>
+  </si>
+  <si>
+    <t>0.9276652425232471+-0.016222205149489455</t>
+  </si>
+  <si>
+    <t>0.8929328977129932+-0.019033971028272388</t>
+  </si>
+  <si>
+    <t>0.8993080338443495+-0.0036832117458102526</t>
+  </si>
+  <si>
+    <t>0.8906509173159085+-0.02418707691091536</t>
   </si>
   <si>
     <t>0.9456128005361482+-0.01278001556531341</t>
@@ -177,10 +177,7 @@
     <t>1.0+-0.0</t>
   </si>
   <si>
-    <t>0.9994202898550725+-0.0012962712913042018</t>
-  </si>
-  <si>
-    <t>0.9733852726815783+-0.011067481594499813</t>
+    <t>0.9699153891262461+-0.010522819404212201</t>
   </si>
   <si>
     <t>0.991899137136634+-0.0047528838296784165</t>
@@ -189,22 +186,25 @@
     <t>0.9976828348831365+-0.0024246037286870226</t>
   </si>
   <si>
-    <t>0.9976811594202899+-0.005185085165216907</t>
+    <t>0.999421965317919+-0.0012925248424854395</t>
+  </si>
+  <si>
+    <t>0.9971014492753624+-0.006481356456521108</t>
   </si>
   <si>
     <t>0.7447754859519565+-0.027921074448870514</t>
   </si>
   <si>
-    <t>0.7656735421441304+-0.048363248503871505</t>
-  </si>
-  <si>
-    <t>0.7486715898480605+-0.012478815431787367</t>
-  </si>
-  <si>
-    <t>0.7499618029029794+-0.061515172943363214</t>
-  </si>
-  <si>
-    <t>0.7630167218402513+-0.025127198117726412</t>
+    <t>0.769493251846193+-0.01931475112808525</t>
+  </si>
+  <si>
+    <t>0.7603768780239368+-0.035329440604697844</t>
+  </si>
+  <si>
+    <t>0.7655971479500892+-0.030388238754054858</t>
+  </si>
+  <si>
+    <t>0.7656480774127833+-0.03740319363995099</t>
   </si>
   <si>
     <t>0.7617859264918089+-0.028662491096779135</t>
@@ -228,7 +228,7 @@
     <t>0.7186741363211951+-0.058364605028079344</t>
   </si>
   <si>
-    <t>0.7526016467192937+-0.009240565495743215</t>
+    <t>0.7512689924454631+-0.020241961060546484</t>
   </si>
   <si>
     <t>0.7539343009931245+-0.03392795742425453</t>
@@ -243,19 +243,19 @@
     <t>0.6953993718699601+-0.05783431747221138</t>
   </si>
   <si>
-    <t>0.7063278750235272+-0.03129651270753324</t>
-  </si>
-  <si>
-    <t>0.7237229437229438+-0.02346169537913357</t>
-  </si>
-  <si>
-    <t>0.6455185394315829+-0.028378032663903267</t>
-  </si>
-  <si>
-    <t>0.6689629211368342+-0.029653967862314338</t>
-  </si>
-  <si>
-    <t>0.653355919442876+-0.028560594087110137</t>
+    <t>0.7132994541690194+-0.028251824209689008</t>
+  </si>
+  <si>
+    <t>0.7263203463203464+-0.019516173633063842</t>
+  </si>
+  <si>
+    <t>0.6559872012045925+-0.02943764341671851</t>
+  </si>
+  <si>
+    <t>0.6750837568228872+-0.021221469073588007</t>
+  </si>
+  <si>
+    <t>0.6767927724449464+-0.027735401103661617</t>
   </si>
   <si>
     <t>0.7132467532467532+-0.04335057920109121</t>
@@ -282,7 +282,7 @@
     <t>0.721072840203275+-0.05269721929127258</t>
   </si>
   <si>
-    <t>0.7132354601919819+-0.038562446066963685</t>
+    <t>0.7106794654620742+-0.039260880100249966</t>
   </si>
   <si>
     <t>0.741991341991342+-0.025431869219936398</t>
@@ -294,22 +294,28 @@
     <t>0.7045774515339732+-0.0317832299170501</t>
   </si>
   <si>
-    <t>0.9499884317502184+-0.02185534738371464</t>
+    <t>0.9502033698311614+-0.015364588477220057</t>
   </si>
   <si>
     <t>0.9324569227298756+-0.014657598251687231</t>
   </si>
   <si>
-    <t>0.9204094582010215+-0.019337684704367246</t>
-  </si>
-  <si>
-    <t>0.964935998658083+-0.01608189304366612</t>
-  </si>
-  <si>
-    <t>0.9657970234893312+-0.015250119785022642</t>
-  </si>
-  <si>
-    <t>0.956870094339077+-0.015275208487662614</t>
+    <t>0.8939520033316559+-0.018928133505889615</t>
+  </si>
+  <si>
+    <t>0.9153547693001787+-0.01959869415002835</t>
+  </si>
+  <si>
+    <t>0.9211630139917981+-0.014784860346905994</t>
+  </si>
+  <si>
+    <t>0.9626780498244518+-0.015122600862053661</t>
+  </si>
+  <si>
+    <t>0.9627855767061723+-0.014590600100115236</t>
+  </si>
+  <si>
+    <t>0.9552570754307727+-0.015602522899429457</t>
   </si>
   <si>
     <t>0.964828876665105+-0.015321930465362768</t>
@@ -327,13 +333,10 @@
     <t>0.9620325993278847+-0.013776205967855048</t>
   </si>
   <si>
-    <t>0.9653662218674626+-0.015700082822904596</t>
-  </si>
-  <si>
-    <t>0.9682709515463858+-0.013681606334831564</t>
-  </si>
-  <si>
-    <t>0.9660117880465274+-0.015020438579130152</t>
+    <t>0.960742045382244+-0.014820519673948209</t>
+  </si>
+  <si>
+    <t>0.9633229219085299+-0.01674286338006737</t>
   </si>
   <si>
     <t>0.962892930064146+-0.014741877087408867</t>
@@ -345,13 +348,13 @@
     <t>0.7954681517577445+-0.0343926313453788</t>
   </si>
   <si>
-    <t>0.7245457709711103+-0.06654816990159984</t>
-  </si>
-  <si>
-    <t>0.7246571528019492+-0.04864285211604231</t>
-  </si>
-  <si>
-    <t>0.7247058823529412+-0.06006807638043701</t>
+    <t>0.7293908806126+-0.047279860655093736</t>
+  </si>
+  <si>
+    <t>0.7246014618865297+-0.041828390884112776</t>
+  </si>
+  <si>
+    <t>0.7482144100243647+-0.02545381280005297</t>
   </si>
   <si>
     <t>0.7801740341106856+-0.03052891269855297</t>
@@ -390,55 +393,58 @@
     <t>0.7328854855551689+-0.014696691715736492</t>
   </si>
   <si>
-    <t>0.9720634920634921+-0.019645061604694838</t>
+    <t>0.9888888888888889+-0.024845199749997673</t>
+  </si>
+  <si>
+    <t>0.9776190476190476+-0.012516051674098047</t>
+  </si>
+  <si>
+    <t>0.9603174603174603+-0.043437429478128925</t>
+  </si>
+  <si>
+    <t>0.9717460317460317+-0.020207726982043317</t>
+  </si>
+  <si>
+    <t>0.9776190476190476+-0.03624995112984431</t>
+  </si>
+  <si>
+    <t>0.9887301587301587+-0.01543441655559713</t>
+  </si>
+  <si>
+    <t>0.9776190476190476+-0.02329064229780912</t>
+  </si>
+  <si>
+    <t>0.9833333333333333+-0.015214515486254621</t>
+  </si>
+  <si>
+    <t>0.983015873015873+-0.025468648441053142</t>
   </si>
   <si>
     <t>0.9774603174603175+-0.023813491732859345</t>
   </si>
   <si>
-    <t>0.9774603174603175+-0.012606312831468115</t>
-  </si>
-  <si>
-    <t>0.9833333333333333+-0.024845199749997673</t>
-  </si>
-  <si>
-    <t>0.9887301587301587+-0.01543441655559713</t>
-  </si>
-  <si>
-    <t>0.9776190476190476+-0.02329064229780912</t>
-  </si>
-  <si>
-    <t>0.9833333333333333+-0.015214515486254621</t>
-  </si>
-  <si>
-    <t>0.983015873015873+-0.025468648441053142</t>
-  </si>
-  <si>
-    <t>0.9944444444444445+-0.012422599874998837</t>
-  </si>
-  <si>
-    <t>0.9888888888888889+-0.024845199749997673</t>
+    <t>0.9831746031746031+-0.024936300808451415</t>
   </si>
   <si>
     <t>0.9942857142857143+-0.012777531299998802</t>
   </si>
   <si>
-    <t>0.9776190476190476+-0.012516051674098047</t>
-  </si>
-  <si>
-    <t>0.9888372093023255+-0.007053837622373544</t>
+    <t>0.9831746031746031+-0.015362832709945517</t>
+  </si>
+  <si>
+    <t>0.9906976744186047+-0.009302325581395363</t>
   </si>
   <si>
     <t>0.9953488372093023+-0.006577737499409725</t>
   </si>
   <si>
-    <t>0.9962790697674418+-0.005095093558187576</t>
-  </si>
-  <si>
-    <t>0.998139534883721+-0.004160126469767038</t>
-  </si>
-  <si>
-    <t>0.9032558139534884+-0.021161512867120636</t>
+    <t>0.8669767441860465+-0.029342902875511636</t>
+  </si>
+  <si>
+    <t>0.8883720930232558+-0.025047278172718655</t>
+  </si>
+  <si>
+    <t>0.9023255813953488+-0.030676525484355628</t>
   </si>
   <si>
     <t>0.9953488372093023+-0.0046511627906976605</t>
@@ -462,13 +468,13 @@
     <t>0.9795348837209302+-0.009644856443408258</t>
   </si>
   <si>
-    <t>0.9944186046511628+-0.007642640337281412</t>
+    <t>0.9916279069767442+-0.006064374330421098</t>
   </si>
   <si>
     <t>0.9851162790697674+-0.00894669026124251</t>
   </si>
   <si>
-    <t>0.9776744186046512+-0.010083480645897145</t>
+    <t>0.9767441860465116+-0.011858184915332054</t>
   </si>
 </sst>
 </file>
@@ -957,22 +963,22 @@
         <v>49</v>
       </c>
       <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
         <v>50</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
         <v>51</v>
       </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>52</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>53</v>
-      </c>
-      <c r="N3" t="s">
-        <v>49</v>
       </c>
       <c r="O3" t="s">
         <v>54</v>
@@ -1110,49 +1116,49 @@
         <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="N6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -1160,55 +1166,55 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -1216,55 +1222,55 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8" t="s">
+        <v>128</v>
+      </c>
+      <c r="M8" t="s">
         <v>122</v>
       </c>
-      <c r="D8" t="s">
+      <c r="N8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O8" t="s">
+        <v>133</v>
+      </c>
+      <c r="P8" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q8" t="s">
         <v>123</v>
       </c>
-      <c r="E8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I8" t="s">
-        <v>127</v>
-      </c>
-      <c r="J8" t="s">
-        <v>128</v>
-      </c>
-      <c r="K8" t="s">
-        <v>129</v>
-      </c>
-      <c r="L8" t="s">
-        <v>126</v>
-      </c>
-      <c r="M8" t="s">
-        <v>130</v>
-      </c>
-      <c r="N8" t="s">
-        <v>131</v>
-      </c>
-      <c r="O8" t="s">
-        <v>131</v>
-      </c>
-      <c r="P8" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>132</v>
-      </c>
       <c r="R8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -1272,55 +1278,55 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" t="s">
         <v>136</v>
       </c>
-      <c r="F9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" t="s">
-        <v>134</v>
-      </c>
       <c r="I9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K9" t="s">
         <v>49</v>
       </c>
       <c r="L9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="R9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
